--- a/data/testcase/scene.xlsx
+++ b/data/testcase/scene.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
     <sheet name="stepData" sheetId="2" r:id="rId2"/>
+    <sheet name="report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>用例编号</t>
   </si>
@@ -35,6 +36,9 @@
     <t>登录流程</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>homePage_01</t>
   </si>
   <si>
@@ -101,9 +105,6 @@
     <t>头条</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>截图</t>
   </si>
   <si>
@@ -129,6 +130,33 @@
   </si>
   <si>
     <t>评论成功</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>总用例数</t>
+  </si>
+  <si>
+    <t>总步骤数</t>
+  </si>
+  <si>
+    <t>执行总时间(秒)</t>
+  </si>
+  <si>
+    <t>用例统计</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>步骤统计</t>
   </si>
 </sst>
 </file>
@@ -136,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -172,9 +200,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,15 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,38 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -271,8 +283,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,36 +308,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,13 +353,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,19 +455,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,145 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,21 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,26 +571,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +597,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -605,17 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,144 +664,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,53 +1164,62 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="13.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1188,160 +1235,166 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="10.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="16.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="14.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="10.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="10.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="10.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" ht="15" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="15" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -1352,10 +1405,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1363,10 +1416,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1377,9 +1430,135 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="截图"/>
+    <hyperlink ref="G6" r:id="rId1" display="截图"/>
+    <hyperlink ref="G8" r:id="rId2" display="截图"/>
+    <hyperlink ref="G5" r:id="rId3" display="截图"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>